--- a/mySystem/mySystem/xls/PTV/SOP-MFG-102-R01A 生产领料记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-102-R01A 生产领料记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\303，CS   2#制袋岗位记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitcpro-master\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -47,30 +47,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品代码：</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品批号：</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -189,10 +165,6 @@
   <si>
     <t>备注：物料单位---膜材用米，管用米，其余物料用个。</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -218,6 +190,14 @@
   </si>
   <si>
     <t>领取数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品批号：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -438,21 +418,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -462,14 +439,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,7 +746,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
@@ -784,12 +776,12 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="35.450000000000003" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -802,55 +794,53 @@
       <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="J4" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>8</v>
       </c>
       <c r="L4" s="18"/>
     </row>
@@ -858,16 +848,16 @@
       <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="11"/>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="10"/>
       <c r="H5" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -876,11 +866,11 @@
       <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="11"/>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="11"/>
@@ -892,11 +882,11 @@
       <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="11"/>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="11"/>
@@ -908,11 +898,11 @@
       <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="11"/>
@@ -924,11 +914,11 @@
       <c r="A9" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="11"/>
@@ -940,8 +930,8 @@
       <c r="A10" s="13">
         <v>6</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="11"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -954,8 +944,8 @@
       <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
       <c r="F11" s="7"/>
@@ -968,8 +958,8 @@
       <c r="A12" s="13">
         <v>8</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="11"/>
       <c r="E12" s="9"/>
       <c r="F12" s="7"/>
@@ -982,8 +972,8 @@
       <c r="A13" s="13">
         <v>9</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9"/>
       <c r="F13" s="7"/>
@@ -996,8 +986,8 @@
       <c r="A14" s="13">
         <v>10</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9"/>
       <c r="F14" s="7"/>
@@ -1008,7 +998,7 @@
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="47.25" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1022,15 +1012,26 @@
     </row>
     <row r="17" spans="2:3" ht="24.2" customHeight="1">
       <c r="B17" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
